--- a/Assignments/Assignment 4/orders.xlsx
+++ b/Assignments/Assignment 4/orders.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherthompson/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christy\PycharmProjects\3522_A01041926\Assignments\Assignment 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2615A5-2D4E-D84E-A9C0-4721B32DEC0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{7FD0183C-8BAB-794C-881D-3EDFAD996962}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14460" windowHeight="5420"/>
   </bookViews>
   <sheets>
     <sheet name="COMP 3522 A4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -240,7 +239,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -352,7 +351,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -370,28 +368,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90C9CD9F-0321-424F-B810-EFE88410C252}" name="Table1" displayName="Table1" ref="A1:S11" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:S11" xr:uid="{B99F9F36-BDE5-F846-8C1E-34F998B48E8E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S11" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:S11"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{2AAC771E-5124-1645-8BFE-001C5E7C9298}" name="Date" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{169201DD-E023-8349-AAF6-FACFB2CB0F31}" name="Order Number" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{B05B4D8B-C081-144F-BD8E-CBCCCA36C1EB}" name="Brand"/>
-    <tableColumn id="4" xr3:uid="{8B45B32A-B33C-884F-AC44-E0149C5D3C34}" name="Garment"/>
-    <tableColumn id="5" xr3:uid="{021318C4-E9F5-2E45-987D-80242C4005C2}" name="Count"/>
-    <tableColumn id="6" xr3:uid="{A799B841-0520-274E-B9C8-42EBDECF36D9}" name="Style name"/>
-    <tableColumn id="7" xr3:uid="{C4C39771-1134-3943-8043-2D59DAE58E33}" name="Size" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{D83A5051-5749-8B4B-B4BA-362CE219E152}" name="Colour"/>
-    <tableColumn id="9" xr3:uid="{6692BFD5-103C-F04D-B5C1-B77D87E233E0}" name="Textile"/>
-    <tableColumn id="10" xr3:uid="{BF9CA479-DD72-1A4D-8513-57B1966DED8A}" name="Sport"/>
-    <tableColumn id="11" xr3:uid="{9E5D1970-2E16-BA47-8B92-65B0CDD02D71}" name="Hidden Zipper Pockets" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{8A69F7F8-7E0C-C442-9791-C6E0647F06BD}" name="Dry Cleaning" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{DA5644C3-2B14-F142-86A1-2E087F287F35}" name="Indoor/Outdoor" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{E46DCE18-7759-0543-AF91-21F34180D80E}" name="Requires Ironing" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{681C681F-981E-6A47-A0FC-785BB608A600}" name="Buttons" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{C45BC455-929B-2049-88C1-D5622C6E28E2}" name="Articulated" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{0CFBA2F7-0071-574A-BD1E-BA10318844A3}" name="Length" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{403059FE-9671-8E43-8C4A-5D86CF2AE3D1}" name="Silver" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{232938F0-BFE8-EE4E-ACCD-0D7732ADEABE}" name="Stripe" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="11"/>
+    <tableColumn id="2" name="Order Number" dataDxfId="10"/>
+    <tableColumn id="3" name="Brand"/>
+    <tableColumn id="4" name="Garment"/>
+    <tableColumn id="5" name="Count"/>
+    <tableColumn id="6" name="Style name"/>
+    <tableColumn id="7" name="Size" dataDxfId="9"/>
+    <tableColumn id="8" name="Colour"/>
+    <tableColumn id="9" name="Textile"/>
+    <tableColumn id="10" name="Sport"/>
+    <tableColumn id="11" name="Hidden Zipper Pockets" dataDxfId="8"/>
+    <tableColumn id="12" name="Dry Cleaning" dataDxfId="7"/>
+    <tableColumn id="13" name="Indoor/Outdoor" dataDxfId="6"/>
+    <tableColumn id="14" name="Requires Ironing" dataDxfId="5"/>
+    <tableColumn id="15" name="Buttons" dataDxfId="4"/>
+    <tableColumn id="16" name="Articulated" dataDxfId="3"/>
+    <tableColumn id="17" name="Length" dataDxfId="2"/>
+    <tableColumn id="18" name="Silver" dataDxfId="1"/>
+    <tableColumn id="19" name="Stripe" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -693,14 +691,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FA95F6-96D6-E642-8089-B0018FA8AF1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
@@ -720,7 +718,7 @@
     <col min="17" max="19" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -779,7 +777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -793,7 +791,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -814,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,7 +826,7 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -846,7 +844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -860,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>500</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -878,7 +876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -892,7 +890,7 @@
         <v>31</v>
       </c>
       <c r="E5">
-        <v>450</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -913,7 +911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -927,7 +925,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>1500</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -945,7 +943,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -959,7 +957,7 @@
         <v>18</v>
       </c>
       <c r="E7">
-        <v>2000</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -980,7 +978,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -994,7 +992,7 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
@@ -1012,7 +1010,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1024,7 @@
         <v>31</v>
       </c>
       <c r="E9">
-        <v>4000</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>45</v>
@@ -1047,7 +1045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1061,7 +1059,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>2200</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
         <v>49</v>
@@ -1082,7 +1080,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1096,7 +1094,7 @@
         <v>31</v>
       </c>
       <c r="E11">
-        <v>1450</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>56</v>
